--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_20-08.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_20-08.xlsx
@@ -1978,17 +1978,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -3709,7 +3709,7 @@
     </row>
     <row r="107" ht="26.25" customHeight="1">
       <c r="K107" s="10">
-        <v>4870.5200000000004</v>
+        <v>4927.5200000000004</v>
       </c>
       <c r="L107" s="10"/>
       <c r="M107" s="10"/>
